--- a/dados_parte_interessada.xlsx
+++ b/dados_parte_interessada.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202001208811\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8333aa88cb6dac03/Área de Trabalho/University/BigData/pandinha/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_02F9EF1F310B0700C54DD33F1D1F744FB9CD00CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3335,7 +3347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
@@ -3651,25 +3663,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3698,7 +3710,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3731,7 +3743,7 @@
         <v>36528</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>36578</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3797,7 +3809,7 @@
         <v>36579</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>36589</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3875,7 @@
         <v>36592</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3908,7 @@
         <v>36601</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3929,7 +3941,7 @@
         <v>36603</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +3974,7 @@
         <v>36633</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>36636</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4028,7 +4040,7 @@
         <v>36639</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>36649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>36663</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>36666</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -4160,7 +4172,7 @@
         <v>36679</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4193,7 +4205,7 @@
         <v>36683</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>36689</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>36690</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>36698</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4325,7 +4337,7 @@
         <v>36710</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4358,7 +4370,7 @@
         <v>36714</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4391,7 +4403,7 @@
         <v>36716</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4424,7 +4436,7 @@
         <v>36721</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>36728</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4490,7 +4502,7 @@
         <v>36744</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>36744</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>36744</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>36747</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>36748</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4655,7 +4667,7 @@
         <v>36779</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>36782</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -4721,7 +4733,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>36790</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>36790</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>36816</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4919,7 +4931,7 @@
         <v>36820</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>36831</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>36831</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5018,7 +5030,7 @@
         <v>36833</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5051,7 +5063,7 @@
         <v>36836</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5084,7 +5096,7 @@
         <v>36843</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5117,7 +5129,7 @@
         <v>36850</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5150,7 +5162,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>36868</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5216,7 +5228,7 @@
         <v>36870</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5249,7 +5261,7 @@
         <v>36873</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>36876</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5315,7 +5327,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5348,7 +5360,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5381,7 +5393,7 @@
         <v>36895</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>36899</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>36904</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5480,7 +5492,7 @@
         <v>36908</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5513,7 +5525,7 @@
         <v>36918</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -5546,7 +5558,7 @@
         <v>36919</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5579,7 +5591,7 @@
         <v>36928</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5612,7 +5624,7 @@
         <v>36937</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -5645,7 +5657,7 @@
         <v>36942</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -5678,7 +5690,7 @@
         <v>36945</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5711,7 +5723,7 @@
         <v>36953</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5744,7 +5756,7 @@
         <v>36958</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -5777,7 +5789,7 @@
         <v>36958</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -5810,7 +5822,7 @@
         <v>36961</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -5843,7 +5855,7 @@
         <v>36963</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -5876,7 +5888,7 @@
         <v>36964</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5909,7 +5921,7 @@
         <v>36968</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -5942,7 +5954,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -5975,7 +5987,7 @@
         <v>36983</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -6008,7 +6020,7 @@
         <v>36990</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -6041,7 +6053,7 @@
         <v>36996</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -6074,7 +6086,7 @@
         <v>37003</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>37005</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -6140,7 +6152,7 @@
         <v>37005</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -6173,7 +6185,7 @@
         <v>37006</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -6206,7 +6218,7 @@
         <v>37007</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -6239,7 +6251,7 @@
         <v>37020</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>37020</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6305,7 +6317,7 @@
         <v>37021</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -6338,7 +6350,7 @@
         <v>37021</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -6371,7 +6383,7 @@
         <v>37033</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -6404,7 +6416,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6437,7 +6449,7 @@
         <v>37050</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6470,7 +6482,7 @@
         <v>37059</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6503,7 +6515,7 @@
         <v>37064</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6536,7 +6548,7 @@
         <v>37077</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -6569,7 +6581,7 @@
         <v>37077</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -6602,7 +6614,7 @@
         <v>37078</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -6635,7 +6647,7 @@
         <v>37083</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -6668,7 +6680,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -6701,7 +6713,7 @@
         <v>37103</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -6734,7 +6746,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -6767,7 +6779,7 @@
         <v>37107</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -6800,7 +6812,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -6833,7 +6845,7 @@
         <v>37116</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -6866,7 +6878,7 @@
         <v>37119</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -6899,7 +6911,7 @@
         <v>37120</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -6932,7 +6944,7 @@
         <v>37140</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -6965,7 +6977,7 @@
         <v>37150</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -6998,7 +7010,7 @@
         <v>37150</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -7031,7 +7043,7 @@
         <v>37157</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -7064,7 +7076,7 @@
         <v>37159</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -7097,7 +7109,7 @@
         <v>37171</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -7130,7 +7142,7 @@
         <v>37174</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>37197</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -7196,7 +7208,7 @@
         <v>37221</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -7229,7 +7241,7 @@
         <v>37221</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -7262,7 +7274,7 @@
         <v>37231</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7295,7 +7307,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -7328,7 +7340,7 @@
         <v>37236</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -7361,7 +7373,7 @@
         <v>37239</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7394,7 +7406,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -7427,7 +7439,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -7460,7 +7472,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -7493,7 +7505,7 @@
         <v>37250</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -7526,7 +7538,7 @@
         <v>37259</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -7559,7 +7571,7 @@
         <v>37269</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -7592,7 +7604,7 @@
         <v>37269</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -7625,7 +7637,7 @@
         <v>37275</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -7658,7 +7670,7 @@
         <v>37278</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -7691,7 +7703,7 @@
         <v>37282</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -7724,7 +7736,7 @@
         <v>37289</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -7757,7 +7769,7 @@
         <v>37300</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -7790,7 +7802,7 @@
         <v>37305</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -7823,7 +7835,7 @@
         <v>37308</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -7856,7 +7868,7 @@
         <v>37312</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -7889,7 +7901,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -7922,7 +7934,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -7988,7 +8000,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -8021,7 +8033,7 @@
         <v>37353</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -8054,7 +8066,7 @@
         <v>37354</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -8087,7 +8099,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -8120,7 +8132,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -8153,7 +8165,7 @@
         <v>37365</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -8186,7 +8198,7 @@
         <v>37371</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -8219,7 +8231,7 @@
         <v>37378</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -8252,7 +8264,7 @@
         <v>37382</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -8285,7 +8297,7 @@
         <v>37389</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>37410</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -8351,7 +8363,7 @@
         <v>37425</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -8384,7 +8396,7 @@
         <v>37436</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -8417,7 +8429,7 @@
         <v>37437</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -8450,7 +8462,7 @@
         <v>37437</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -8483,7 +8495,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -8516,7 +8528,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -8549,7 +8561,7 @@
         <v>37474</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -8582,7 +8594,7 @@
         <v>37476</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -8615,7 +8627,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -8648,7 +8660,7 @@
         <v>37483</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -8681,7 +8693,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -8714,7 +8726,7 @@
         <v>37494</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -8747,7 +8759,7 @@
         <v>37495</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -8780,7 +8792,7 @@
         <v>37514</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -8813,7 +8825,7 @@
         <v>37517</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -8846,7 +8858,7 @@
         <v>37523</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -8879,7 +8891,7 @@
         <v>37538</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -8912,7 +8924,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -8945,7 +8957,7 @@
         <v>37559</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -9011,7 +9023,7 @@
         <v>37572</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -9044,7 +9056,7 @@
         <v>37576</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -9077,7 +9089,7 @@
         <v>37582</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -9110,7 +9122,7 @@
         <v>37596</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -9143,7 +9155,7 @@
         <v>37612</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -9176,7 +9188,7 @@
         <v>37617</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -9209,7 +9221,7 @@
         <v>37618</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -9242,7 +9254,7 @@
         <v>37620</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -9275,7 +9287,7 @@
         <v>37623</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -9308,7 +9320,7 @@
         <v>37628</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -9341,7 +9353,7 @@
         <v>37636</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -9374,7 +9386,7 @@
         <v>37646</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -9407,7 +9419,7 @@
         <v>37669</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -9440,7 +9452,7 @@
         <v>37675</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -9473,7 +9485,7 @@
         <v>37682</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -9506,7 +9518,7 @@
         <v>37698</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -9539,7 +9551,7 @@
         <v>37708</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -9572,7 +9584,7 @@
         <v>37724</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -9605,7 +9617,7 @@
         <v>37729</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -9638,7 +9650,7 @@
         <v>37738</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -9671,7 +9683,7 @@
         <v>37745</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -9704,7 +9716,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -9737,7 +9749,7 @@
         <v>37756</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -9770,7 +9782,7 @@
         <v>37758</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -9803,7 +9815,7 @@
         <v>37761</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -9836,7 +9848,7 @@
         <v>37765</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -9869,7 +9881,7 @@
         <v>37770</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -9902,7 +9914,7 @@
         <v>37774</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -9935,7 +9947,7 @@
         <v>37780</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -9968,7 +9980,7 @@
         <v>37783</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -10001,7 +10013,7 @@
         <v>37826</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -10034,7 +10046,7 @@
         <v>37828</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -10067,7 +10079,7 @@
         <v>37832</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -10100,7 +10112,7 @@
         <v>37841</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -10133,7 +10145,7 @@
         <v>37843</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -10166,7 +10178,7 @@
         <v>37847</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -10199,7 +10211,7 @@
         <v>37847</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -10232,7 +10244,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -10265,7 +10277,7 @@
         <v>37859</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -10298,7 +10310,7 @@
         <v>37859</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -10331,7 +10343,7 @@
         <v>37863</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -10364,7 +10376,7 @@
         <v>37864</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -10397,7 +10409,7 @@
         <v>37865</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -10430,7 +10442,7 @@
         <v>37866</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -10463,7 +10475,7 @@
         <v>37867</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -10496,7 +10508,7 @@
         <v>37867</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -10529,7 +10541,7 @@
         <v>37890</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -10562,7 +10574,7 @@
         <v>37891</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -10595,7 +10607,7 @@
         <v>37894</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -10628,7 +10640,7 @@
         <v>37906</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -10661,7 +10673,7 @@
         <v>37906</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -10694,7 +10706,7 @@
         <v>37923</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -10727,7 +10739,7 @@
         <v>37924</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -10760,7 +10772,7 @@
         <v>37932</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -10793,7 +10805,7 @@
         <v>37942</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -10826,7 +10838,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -10859,7 +10871,7 @@
         <v>37947</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -10892,7 +10904,7 @@
         <v>37950</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -10925,7 +10937,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -10958,7 +10970,7 @@
         <v>37965</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -10991,7 +11003,7 @@
         <v>37978</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -11024,7 +11036,7 @@
         <v>37982</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -11057,7 +11069,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -11090,7 +11102,7 @@
         <v>37993</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -11123,7 +11135,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -11156,7 +11168,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -11189,7 +11201,7 @@
         <v>38035</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -11222,7 +11234,7 @@
         <v>38036</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -11255,7 +11267,7 @@
         <v>38052</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -11288,7 +11300,7 @@
         <v>38053</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -11321,7 +11333,7 @@
         <v>38056</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -11354,7 +11366,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -11387,7 +11399,7 @@
         <v>38075</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -11420,7 +11432,7 @@
         <v>38079</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -11453,7 +11465,7 @@
         <v>38079</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -11486,7 +11498,7 @@
         <v>38084</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -11519,7 +11531,7 @@
         <v>38087</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -11552,7 +11564,7 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -11585,7 +11597,7 @@
         <v>38094</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -11618,7 +11630,7 @@
         <v>38094</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -11651,7 +11663,7 @@
         <v>38106</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -11684,7 +11696,7 @@
         <v>38111</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -11717,7 +11729,7 @@
         <v>38117</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -11750,7 +11762,7 @@
         <v>38118</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -11783,7 +11795,7 @@
         <v>38122</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -11816,7 +11828,7 @@
         <v>38136</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -11849,7 +11861,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -11882,7 +11894,7 @@
         <v>38155</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -11915,7 +11927,7 @@
         <v>38161</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -11948,7 +11960,7 @@
         <v>38167</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -11981,7 +11993,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -12014,7 +12026,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -12047,7 +12059,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -12080,7 +12092,7 @@
         <v>38199</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -12113,7 +12125,7 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -12146,7 +12158,7 @@
         <v>38201</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -12179,7 +12191,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -12212,7 +12224,7 @@
         <v>38223</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -12245,7 +12257,7 @@
         <v>38223</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -12278,7 +12290,7 @@
         <v>38224</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -12311,7 +12323,7 @@
         <v>38225</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -12344,7 +12356,7 @@
         <v>38225</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -12377,7 +12389,7 @@
         <v>38228</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -12410,7 +12422,7 @@
         <v>38237</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -12443,7 +12455,7 @@
         <v>38245</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -12476,7 +12488,7 @@
         <v>38270</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -12509,7 +12521,7 @@
         <v>38275</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -12542,7 +12554,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -12575,7 +12587,7 @@
         <v>38301</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -12608,7 +12620,7 @@
         <v>38306</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -12641,7 +12653,7 @@
         <v>38310</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -12674,7 +12686,7 @@
         <v>38314</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -12707,7 +12719,7 @@
         <v>38340</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -12740,7 +12752,7 @@
         <v>38346</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -12773,7 +12785,7 @@
         <v>38351</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -12806,7 +12818,7 @@
         <v>38367</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -12839,7 +12851,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -12872,7 +12884,7 @@
         <v>38389</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -12905,7 +12917,7 @@
         <v>38395</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -12938,7 +12950,7 @@
         <v>38409</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -12971,7 +12983,7 @@
         <v>38419</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -13004,7 +13016,7 @@
         <v>38421</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -13037,7 +13049,7 @@
         <v>38444</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -13070,7 +13082,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -13103,7 +13115,7 @@
         <v>38453</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -13136,7 +13148,7 @@
         <v>38453</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -13169,7 +13181,7 @@
         <v>38466</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -13202,7 +13214,7 @@
         <v>38473</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -13235,7 +13247,7 @@
         <v>38494</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -13268,7 +13280,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -13301,7 +13313,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -13334,7 +13346,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -13367,7 +13379,7 @@
         <v>38514</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -13400,7 +13412,7 @@
         <v>38529</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -13433,7 +13445,7 @@
         <v>38569</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -13466,7 +13478,7 @@
         <v>38574</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -13499,7 +13511,7 @@
         <v>38579</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -13532,7 +13544,7 @@
         <v>38582</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -13565,7 +13577,7 @@
         <v>38586</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -13598,7 +13610,7 @@
         <v>38589</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -13631,7 +13643,7 @@
         <v>38604</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -13664,7 +13676,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -13697,7 +13709,7 @@
         <v>38626</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -13730,7 +13742,7 @@
         <v>38630</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -13763,7 +13775,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -13796,7 +13808,7 @@
         <v>38650</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -13829,7 +13841,7 @@
         <v>38660</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -13862,7 +13874,7 @@
         <v>38683</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -13895,7 +13907,7 @@
         <v>38684</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -13928,7 +13940,7 @@
         <v>38685</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -13961,7 +13973,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -13994,7 +14006,7 @@
         <v>38696</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -14027,7 +14039,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -14060,7 +14072,7 @@
         <v>38703</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -14093,7 +14105,7 @@
         <v>38714</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -14126,7 +14138,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -14159,7 +14171,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -14192,7 +14204,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -14225,7 +14237,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -14258,7 +14270,7 @@
         <v>38730</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -14291,7 +14303,7 @@
         <v>38741</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -14324,7 +14336,7 @@
         <v>38751</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -14357,7 +14369,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -14390,7 +14402,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -14423,7 +14435,7 @@
         <v>38759</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -14456,7 +14468,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -14489,7 +14501,7 @@
         <v>38785</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -14522,7 +14534,7 @@
         <v>38791</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -14555,7 +14567,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -14588,7 +14600,7 @@
         <v>38796</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -14621,7 +14633,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -14654,7 +14666,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -14687,7 +14699,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -14720,7 +14732,7 @@
         <v>38806</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -14753,7 +14765,7 @@
         <v>38807</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -14786,7 +14798,7 @@
         <v>38826</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -14819,7 +14831,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -14852,7 +14864,7 @@
         <v>38838</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -14885,7 +14897,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -14918,7 +14930,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -14951,7 +14963,7 @@
         <v>38861</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -14984,7 +14996,7 @@
         <v>38862</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -15017,7 +15029,7 @@
         <v>38891</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -15050,7 +15062,7 @@
         <v>38912</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -15083,7 +15095,7 @@
         <v>38914</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -15116,7 +15128,7 @@
         <v>38936</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -15149,7 +15161,7 @@
         <v>38947</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -15182,7 +15194,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -15215,7 +15227,7 @@
         <v>38965</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -15248,7 +15260,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -15281,7 +15293,7 @@
         <v>38983</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -15314,7 +15326,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -15347,7 +15359,7 @@
         <v>39004</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -15380,7 +15392,7 @@
         <v>39010</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -15413,7 +15425,7 @@
         <v>39024</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -15446,7 +15458,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -15479,7 +15491,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -15512,7 +15524,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -15545,7 +15557,7 @@
         <v>39035</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -15578,7 +15590,7 @@
         <v>39043</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -15611,7 +15623,7 @@
         <v>39047</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -15644,7 +15656,7 @@
         <v>39049</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -15677,7 +15689,7 @@
         <v>39056</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -15710,7 +15722,7 @@
         <v>39067</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -15743,7 +15755,7 @@
         <v>39068</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -15776,7 +15788,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -15809,7 +15821,7 @@
         <v>39071</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -15842,7 +15854,7 @@
         <v>39074</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -15875,7 +15887,7 @@
         <v>39100</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -15908,7 +15920,7 @@
         <v>39103</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -15941,7 +15953,7 @@
         <v>39118</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -15974,7 +15986,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -16007,7 +16019,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -16040,7 +16052,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -16073,7 +16085,7 @@
         <v>39139</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -16106,7 +16118,7 @@
         <v>39145</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -16139,7 +16151,7 @@
         <v>39148</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -16172,7 +16184,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -16205,7 +16217,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -16238,7 +16250,7 @@
         <v>39167</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -16271,7 +16283,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -16304,7 +16316,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -16337,7 +16349,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -16370,7 +16382,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -16403,7 +16415,7 @@
         <v>39221</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -16436,7 +16448,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -16469,7 +16481,7 @@
         <v>39242</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -16502,7 +16514,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -16535,7 +16547,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -16568,7 +16580,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -16601,7 +16613,7 @@
         <v>39255</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -16634,7 +16646,7 @@
         <v>39259</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -16667,7 +16679,7 @@
         <v>39264</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -16700,7 +16712,7 @@
         <v>39267</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -16733,7 +16745,7 @@
         <v>39273</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
@@ -16766,7 +16778,7 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -16799,7 +16811,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
@@ -16832,7 +16844,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
@@ -16865,7 +16877,7 @@
         <v>39285</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
@@ -16898,7 +16910,7 @@
         <v>39286</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
@@ -16931,7 +16943,7 @@
         <v>39298</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
@@ -16964,7 +16976,7 @@
         <v>39301</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
@@ -16997,7 +17009,7 @@
         <v>39319</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
@@ -17030,7 +17042,7 @@
         <v>39322</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
@@ -17063,7 +17075,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
@@ -17096,7 +17108,7 @@
         <v>39330</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
@@ -17129,7 +17141,7 @@
         <v>39338</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
@@ -17162,7 +17174,7 @@
         <v>39338</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
@@ -17195,7 +17207,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
@@ -17228,7 +17240,7 @@
         <v>39369</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
@@ -17261,7 +17273,7 @@
         <v>39370</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
@@ -17294,7 +17306,7 @@
         <v>39382</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
@@ -17327,7 +17339,7 @@
         <v>39396</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
@@ -17360,7 +17372,7 @@
         <v>39398</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -17393,7 +17405,7 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
@@ -17426,7 +17438,7 @@
         <v>39431</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
@@ -17459,7 +17471,7 @@
         <v>39431</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
@@ -17492,7 +17504,7 @@
         <v>39443</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
@@ -17525,7 +17537,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
@@ -17558,7 +17570,7 @@
         <v>39463</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
@@ -17591,7 +17603,7 @@
         <v>39495</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
@@ -17624,7 +17636,7 @@
         <v>39509</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>427</v>
       </c>
@@ -17657,7 +17669,7 @@
         <v>39512</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>428</v>
       </c>
@@ -17690,7 +17702,7 @@
         <v>39527</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>429</v>
       </c>
@@ -17723,7 +17735,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>430</v>
       </c>
@@ -17756,7 +17768,7 @@
         <v>39540</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>431</v>
       </c>
@@ -17789,7 +17801,7 @@
         <v>39551</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>432</v>
       </c>
@@ -17822,7 +17834,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>433</v>
       </c>
@@ -17855,7 +17867,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>434</v>
       </c>
@@ -17888,7 +17900,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>435</v>
       </c>
@@ -17921,7 +17933,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -17954,7 +17966,7 @@
         <v>39612</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>437</v>
       </c>
@@ -17987,7 +17999,7 @@
         <v>39623</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>438</v>
       </c>
@@ -18020,7 +18032,7 @@
         <v>39629</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>439</v>
       </c>
@@ -18053,7 +18065,7 @@
         <v>39633</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>440</v>
       </c>
@@ -18086,7 +18098,7 @@
         <v>39637</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>441</v>
       </c>
@@ -18119,7 +18131,7 @@
         <v>39641</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>442</v>
       </c>
@@ -18152,7 +18164,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>443</v>
       </c>
@@ -18185,7 +18197,7 @@
         <v>39653</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>444</v>
       </c>
@@ -18218,7 +18230,7 @@
         <v>39699</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>445</v>
       </c>
@@ -18251,7 +18263,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>446</v>
       </c>
@@ -18284,7 +18296,7 @@
         <v>39709</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>447</v>
       </c>
@@ -18317,7 +18329,7 @@
         <v>39716</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>448</v>
       </c>
@@ -18350,7 +18362,7 @@
         <v>39717</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>449</v>
       </c>
@@ -18383,7 +18395,7 @@
         <v>39728</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>450</v>
       </c>
@@ -18416,7 +18428,7 @@
         <v>39730</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>451</v>
       </c>
@@ -18449,7 +18461,7 @@
         <v>39732</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>452</v>
       </c>
@@ -18482,7 +18494,7 @@
         <v>39743</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>453</v>
       </c>
@@ -18515,7 +18527,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>454</v>
       </c>
@@ -18548,7 +18560,7 @@
         <v>39751</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>455</v>
       </c>
@@ -18581,7 +18593,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>456</v>
       </c>
@@ -18614,7 +18626,7 @@
         <v>39766</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>457</v>
       </c>
@@ -18647,7 +18659,7 @@
         <v>39770</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>458</v>
       </c>
@@ -18680,7 +18692,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>459</v>
       </c>
@@ -18713,7 +18725,7 @@
         <v>39779</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>460</v>
       </c>
@@ -18746,7 +18758,7 @@
         <v>39781</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>461</v>
       </c>
@@ -18779,7 +18791,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>462</v>
       </c>
@@ -18812,7 +18824,7 @@
         <v>39792</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>463</v>
       </c>
@@ -18845,7 +18857,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>464</v>
       </c>
@@ -18878,7 +18890,7 @@
         <v>39795</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>465</v>
       </c>
@@ -18911,7 +18923,7 @@
         <v>39797</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>466</v>
       </c>
@@ -18944,7 +18956,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>467</v>
       </c>
@@ -18977,7 +18989,7 @@
         <v>39803</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>468</v>
       </c>
@@ -19010,7 +19022,7 @@
         <v>39810</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>469</v>
       </c>
@@ -19043,7 +19055,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>470</v>
       </c>
@@ -19076,7 +19088,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>471</v>
       </c>
@@ -19109,7 +19121,7 @@
         <v>39826</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>472</v>
       </c>
@@ -19142,7 +19154,7 @@
         <v>39828</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>473</v>
       </c>
@@ -19175,7 +19187,7 @@
         <v>39841</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>474</v>
       </c>
@@ -19208,7 +19220,7 @@
         <v>39854</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>475</v>
       </c>
@@ -19241,7 +19253,7 @@
         <v>39863</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>476</v>
       </c>
@@ -19274,7 +19286,7 @@
         <v>39880</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>477</v>
       </c>
@@ -19307,7 +19319,7 @@
         <v>39880</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>478</v>
       </c>
@@ -19340,7 +19352,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>479</v>
       </c>
@@ -19373,7 +19385,7 @@
         <v>39905</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>480</v>
       </c>
@@ -19406,7 +19418,7 @@
         <v>39909</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>481</v>
       </c>
@@ -19439,7 +19451,7 @@
         <v>39909</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>482</v>
       </c>
@@ -19472,7 +19484,7 @@
         <v>39925</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>483</v>
       </c>
@@ -19505,7 +19517,7 @@
         <v>39949</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>484</v>
       </c>
@@ -19538,7 +19550,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>485</v>
       </c>
@@ -19571,7 +19583,7 @@
         <v>39971</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>486</v>
       </c>
@@ -19604,7 +19616,7 @@
         <v>40015</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>487</v>
       </c>
@@ -19637,7 +19649,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>488</v>
       </c>
@@ -19670,7 +19682,7 @@
         <v>40032</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>489</v>
       </c>
@@ -19703,7 +19715,7 @@
         <v>40046</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>490</v>
       </c>
@@ -19736,7 +19748,7 @@
         <v>40053</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>491</v>
       </c>
@@ -19769,7 +19781,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>492</v>
       </c>
@@ -19802,7 +19814,7 @@
         <v>40080</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>493</v>
       </c>
@@ -19835,7 +19847,7 @@
         <v>40092</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>494</v>
       </c>
@@ -19868,7 +19880,7 @@
         <v>40098</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>495</v>
       </c>
@@ -19901,7 +19913,7 @@
         <v>40113</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>496</v>
       </c>
@@ -19934,7 +19946,7 @@
         <v>40132</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>497</v>
       </c>
@@ -19967,7 +19979,7 @@
         <v>40136</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>498</v>
       </c>
@@ -20000,7 +20012,7 @@
         <v>40143</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>499</v>
       </c>
@@ -20033,7 +20045,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>500</v>
       </c>
@@ -20066,7 +20078,7 @@
         <v>40153</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>501</v>
       </c>
@@ -20099,7 +20111,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>502</v>
       </c>
@@ -20132,7 +20144,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>503</v>
       </c>
@@ -20165,7 +20177,7 @@
         <v>40174</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>504</v>
       </c>
@@ -20198,7 +20210,7 @@
         <v>40182</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>505</v>
       </c>
@@ -20231,7 +20243,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>506</v>
       </c>
@@ -20264,7 +20276,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>507</v>
       </c>
@@ -20297,7 +20309,7 @@
         <v>40223</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>508</v>
       </c>
@@ -20330,7 +20342,7 @@
         <v>40226</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>509</v>
       </c>
@@ -20363,7 +20375,7 @@
         <v>40232</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>510</v>
       </c>
@@ -20396,7 +20408,7 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>511</v>
       </c>
@@ -20429,7 +20441,7 @@
         <v>40244</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>512</v>
       </c>
@@ -20462,7 +20474,7 @@
         <v>40265</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>513</v>
       </c>
@@ -20495,7 +20507,7 @@
         <v>40267</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>514</v>
       </c>
@@ -20528,7 +20540,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>515</v>
       </c>
@@ -20561,7 +20573,7 @@
         <v>40272</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>516</v>
       </c>
@@ -20594,7 +20606,7 @@
         <v>40274</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>517</v>
       </c>
@@ -20627,7 +20639,7 @@
         <v>40275</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>518</v>
       </c>
@@ -20660,7 +20672,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>519</v>
       </c>
@@ -20693,7 +20705,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>520</v>
       </c>
@@ -20726,7 +20738,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>521</v>
       </c>
@@ -20759,7 +20771,7 @@
         <v>40313</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>522</v>
       </c>
@@ -20792,7 +20804,7 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>523</v>
       </c>
@@ -20825,7 +20837,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>524</v>
       </c>
@@ -20858,7 +20870,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>525</v>
       </c>
@@ -20891,7 +20903,7 @@
         <v>40339</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>526</v>
       </c>
@@ -20924,7 +20936,7 @@
         <v>40352</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>527</v>
       </c>
@@ -20957,7 +20969,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>528</v>
       </c>
@@ -20990,7 +21002,7 @@
         <v>40356</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>529</v>
       </c>
@@ -21023,7 +21035,7 @@
         <v>40358</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>530</v>
       </c>
@@ -21056,7 +21068,7 @@
         <v>40360</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>531</v>
       </c>
@@ -21089,7 +21101,7 @@
         <v>40362</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>532</v>
       </c>
@@ -21122,7 +21134,7 @@
         <v>40364</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>533</v>
       </c>
@@ -21155,7 +21167,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>534</v>
       </c>
@@ -21188,7 +21200,7 @@
         <v>40378</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>535</v>
       </c>
@@ -21221,7 +21233,7 @@
         <v>40381</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>536</v>
       </c>
@@ -21254,7 +21266,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>537</v>
       </c>
@@ -21287,7 +21299,7 @@
         <v>40384</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>538</v>
       </c>
@@ -21320,7 +21332,7 @@
         <v>40388</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>539</v>
       </c>
@@ -21353,7 +21365,7 @@
         <v>40392</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>540</v>
       </c>
@@ -21386,7 +21398,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>541</v>
       </c>
@@ -21419,7 +21431,7 @@
         <v>40395</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>542</v>
       </c>
@@ -21452,7 +21464,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>543</v>
       </c>
@@ -21485,7 +21497,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>544</v>
       </c>
@@ -21518,7 +21530,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>545</v>
       </c>
@@ -21551,7 +21563,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>546</v>
       </c>
@@ -21584,7 +21596,7 @@
         <v>40419</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>547</v>
       </c>
@@ -21617,7 +21629,7 @@
         <v>40425</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>548</v>
       </c>
@@ -21650,7 +21662,7 @@
         <v>40426</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>549</v>
       </c>
@@ -21683,7 +21695,7 @@
         <v>40440</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>550</v>
       </c>
@@ -21716,7 +21728,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>551</v>
       </c>
@@ -21749,7 +21761,7 @@
         <v>40457</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>552</v>
       </c>
@@ -21782,7 +21794,7 @@
         <v>40458</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>553</v>
       </c>
@@ -21815,7 +21827,7 @@
         <v>40460</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>554</v>
       </c>
@@ -21848,7 +21860,7 @@
         <v>40461</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>555</v>
       </c>
@@ -21881,7 +21893,7 @@
         <v>40461</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>556</v>
       </c>
@@ -21914,7 +21926,7 @@
         <v>40477</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>557</v>
       </c>
@@ -21947,7 +21959,7 @@
         <v>40495</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>558</v>
       </c>
@@ -21980,7 +21992,7 @@
         <v>40496</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>559</v>
       </c>
@@ -22013,7 +22025,7 @@
         <v>40497</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>560</v>
       </c>
@@ -22046,7 +22058,7 @@
         <v>40498</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>561</v>
       </c>
@@ -22079,7 +22091,7 @@
         <v>40505</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>562</v>
       </c>
@@ -22112,7 +22124,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>563</v>
       </c>
@@ -22145,7 +22157,7 @@
         <v>40509</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>564</v>
       </c>
@@ -22178,7 +22190,7 @@
         <v>40511</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>565</v>
       </c>
@@ -22211,7 +22223,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>566</v>
       </c>
@@ -22244,7 +22256,7 @@
         <v>40530</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>567</v>
       </c>
@@ -22277,7 +22289,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>568</v>
       </c>
@@ -22310,7 +22322,7 @@
         <v>40549</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>569</v>
       </c>
@@ -22343,7 +22355,7 @@
         <v>40551</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>570</v>
       </c>
@@ -22376,7 +22388,7 @@
         <v>40557</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>571</v>
       </c>
@@ -22409,7 +22421,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>572</v>
       </c>
@@ -22442,7 +22454,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>573</v>
       </c>
@@ -22475,7 +22487,7 @@
         <v>40566</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>574</v>
       </c>
@@ -22508,7 +22520,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>575</v>
       </c>
@@ -22541,7 +22553,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>576</v>
       </c>
@@ -22574,7 +22586,7 @@
         <v>40605</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>577</v>
       </c>
@@ -22607,7 +22619,7 @@
         <v>40611</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>578</v>
       </c>
@@ -22640,7 +22652,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>579</v>
       </c>
@@ -22673,7 +22685,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>580</v>
       </c>
@@ -22706,7 +22718,7 @@
         <v>40627</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>581</v>
       </c>
@@ -22739,7 +22751,7 @@
         <v>40627</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>582</v>
       </c>
@@ -22772,7 +22784,7 @@
         <v>40629</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>583</v>
       </c>
@@ -22805,7 +22817,7 @@
         <v>40633</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>584</v>
       </c>
@@ -22838,7 +22850,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>585</v>
       </c>
@@ -22871,7 +22883,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>586</v>
       </c>
@@ -22904,7 +22916,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>587</v>
       </c>
@@ -22937,7 +22949,7 @@
         <v>40705</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>588</v>
       </c>
@@ -22970,7 +22982,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>589</v>
       </c>
@@ -23003,7 +23015,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>590</v>
       </c>
@@ -23036,7 +23048,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>591</v>
       </c>
@@ -23069,7 +23081,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>592</v>
       </c>
@@ -23102,7 +23114,7 @@
         <v>40737</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>593</v>
       </c>
@@ -23135,7 +23147,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>594</v>
       </c>
@@ -23168,7 +23180,7 @@
         <v>40759</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>595</v>
       </c>
@@ -23201,7 +23213,7 @@
         <v>40774</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>596</v>
       </c>
@@ -23234,7 +23246,7 @@
         <v>40789</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>597</v>
       </c>
@@ -23267,7 +23279,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>598</v>
       </c>
@@ -23300,7 +23312,7 @@
         <v>40810</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>599</v>
       </c>
@@ -23333,7 +23345,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>600</v>
       </c>
@@ -23366,7 +23378,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>601</v>
       </c>
@@ -23399,7 +23411,7 @@
         <v>40850</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>602</v>
       </c>
@@ -23432,7 +23444,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>603</v>
       </c>
@@ -23465,7 +23477,7 @@
         <v>40867</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>604</v>
       </c>
@@ -23498,7 +23510,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>605</v>
       </c>
@@ -23531,7 +23543,7 @@
         <v>40880</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>606</v>
       </c>
@@ -23564,7 +23576,7 @@
         <v>40884</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>607</v>
       </c>
@@ -23597,7 +23609,7 @@
         <v>40894</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>608</v>
       </c>
@@ -23630,7 +23642,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>609</v>
       </c>
@@ -23663,7 +23675,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>610</v>
       </c>
@@ -23696,7 +23708,7 @@
         <v>40913</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>611</v>
       </c>
@@ -23729,7 +23741,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>612</v>
       </c>
@@ -23762,7 +23774,7 @@
         <v>40920</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>613</v>
       </c>
@@ -23795,7 +23807,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>614</v>
       </c>
@@ -23828,7 +23840,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>615</v>
       </c>
@@ -23861,7 +23873,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>616</v>
       </c>
@@ -23894,7 +23906,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>617</v>
       </c>
@@ -23927,7 +23939,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>618</v>
       </c>
@@ -23960,7 +23972,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>619</v>
       </c>
@@ -23993,7 +24005,7 @@
         <v>41002</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>620</v>
       </c>
@@ -24026,7 +24038,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>621</v>
       </c>
@@ -24059,7 +24071,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>622</v>
       </c>
@@ -24092,7 +24104,7 @@
         <v>41016</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>623</v>
       </c>
@@ -24125,7 +24137,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>624</v>
       </c>
@@ -24158,7 +24170,7 @@
         <v>41036</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>625</v>
       </c>
@@ -24191,7 +24203,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>626</v>
       </c>
@@ -24224,7 +24236,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>627</v>
       </c>
@@ -24257,7 +24269,7 @@
         <v>41065</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>628</v>
       </c>
@@ -24290,7 +24302,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>629</v>
       </c>
@@ -24323,7 +24335,7 @@
         <v>41083</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>630</v>
       </c>
@@ -24356,7 +24368,7 @@
         <v>41086</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>631</v>
       </c>
@@ -24389,7 +24401,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>632</v>
       </c>
@@ -24422,7 +24434,7 @@
         <v>41098</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>633</v>
       </c>
@@ -24455,7 +24467,7 @@
         <v>41104</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>634</v>
       </c>
@@ -24488,7 +24500,7 @@
         <v>41108</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>635</v>
       </c>
@@ -24521,7 +24533,7 @@
         <v>41110</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>636</v>
       </c>
@@ -24554,7 +24566,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>637</v>
       </c>
@@ -24587,7 +24599,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>638</v>
       </c>
@@ -24620,7 +24632,7 @@
         <v>41128</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>639</v>
       </c>
@@ -24653,7 +24665,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>640</v>
       </c>
@@ -24686,7 +24698,7 @@
         <v>41150</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>641</v>
       </c>
@@ -24719,7 +24731,7 @@
         <v>41156</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>642</v>
       </c>
@@ -24752,7 +24764,7 @@
         <v>41160</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>643</v>
       </c>
@@ -24785,7 +24797,7 @@
         <v>41170</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>644</v>
       </c>
@@ -24818,7 +24830,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>645</v>
       </c>
@@ -24851,7 +24863,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>646</v>
       </c>
@@ -24884,7 +24896,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>647</v>
       </c>
@@ -24917,7 +24929,7 @@
         <v>41215</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>648</v>
       </c>
@@ -24950,7 +24962,7 @@
         <v>41224</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>649</v>
       </c>
@@ -24983,7 +24995,7 @@
         <v>41231</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>650</v>
       </c>
@@ -25016,7 +25028,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>651</v>
       </c>
@@ -25049,7 +25061,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>652</v>
       </c>
@@ -25082,7 +25094,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>653</v>
       </c>
@@ -25115,7 +25127,7 @@
         <v>41258</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>654</v>
       </c>
@@ -25148,7 +25160,7 @@
         <v>41263</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>655</v>
       </c>
@@ -25181,7 +25193,7 @@
         <v>41266</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>656</v>
       </c>
@@ -25214,7 +25226,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>657</v>
       </c>
@@ -25247,7 +25259,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>658</v>
       </c>
@@ -25280,7 +25292,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>659</v>
       </c>
@@ -25313,7 +25325,7 @@
         <v>41307</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>660</v>
       </c>
@@ -25346,7 +25358,7 @@
         <v>41316</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>661</v>
       </c>
@@ -25379,7 +25391,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>662</v>
       </c>
@@ -25412,7 +25424,7 @@
         <v>41325</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>663</v>
       </c>
@@ -25445,7 +25457,7 @@
         <v>41330</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>664</v>
       </c>
@@ -25478,7 +25490,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>665</v>
       </c>
@@ -25511,7 +25523,7 @@
         <v>41346</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>666</v>
       </c>
@@ -25544,7 +25556,7 @@
         <v>41348</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>667</v>
       </c>
@@ -25577,7 +25589,7 @@
         <v>41349</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>668</v>
       </c>
@@ -25610,7 +25622,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>669</v>
       </c>
@@ -25643,7 +25655,7 @@
         <v>41367</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>670</v>
       </c>
@@ -25676,7 +25688,7 @@
         <v>41377</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>671</v>
       </c>
@@ -25709,7 +25721,7 @@
         <v>41390</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>672</v>
       </c>
@@ -25742,7 +25754,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>673</v>
       </c>
@@ -25775,7 +25787,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>674</v>
       </c>
@@ -25808,7 +25820,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>675</v>
       </c>
@@ -25841,7 +25853,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>676</v>
       </c>
@@ -25874,7 +25886,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>677</v>
       </c>
@@ -25907,7 +25919,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>678</v>
       </c>
@@ -25940,7 +25952,7 @@
         <v>41432</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>679</v>
       </c>
@@ -25973,7 +25985,7 @@
         <v>41439</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>680</v>
       </c>
@@ -26006,7 +26018,7 @@
         <v>41447</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>681</v>
       </c>
@@ -26039,7 +26051,7 @@
         <v>41453</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>682</v>
       </c>
@@ -26072,7 +26084,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>683</v>
       </c>
@@ -26105,7 +26117,7 @@
         <v>41466</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>684</v>
       </c>
@@ -26138,7 +26150,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>685</v>
       </c>
@@ -26171,7 +26183,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>686</v>
       </c>
@@ -26204,7 +26216,7 @@
         <v>41527</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>687</v>
       </c>
@@ -26237,7 +26249,7 @@
         <v>41534</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>688</v>
       </c>
@@ -26270,7 +26282,7 @@
         <v>41545</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>689</v>
       </c>
@@ -26303,7 +26315,7 @@
         <v>41555</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>690</v>
       </c>
@@ -26336,7 +26348,7 @@
         <v>41558</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>691</v>
       </c>
@@ -26369,7 +26381,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>692</v>
       </c>
@@ -26402,7 +26414,7 @@
         <v>41564</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>693</v>
       </c>
@@ -26435,7 +26447,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>694</v>
       </c>
@@ -26468,7 +26480,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>695</v>
       </c>
@@ -26501,7 +26513,7 @@
         <v>41613</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>696</v>
       </c>
@@ -26534,7 +26546,7 @@
         <v>41631</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>697</v>
       </c>
@@ -26567,7 +26579,7 @@
         <v>41634</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>698</v>
       </c>
@@ -26600,7 +26612,7 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>699</v>
       </c>
@@ -26633,7 +26645,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>700</v>
       </c>
@@ -26666,7 +26678,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>701</v>
       </c>
@@ -26699,7 +26711,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>702</v>
       </c>
@@ -26732,7 +26744,7 @@
         <v>41668</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>703</v>
       </c>
@@ -26765,7 +26777,7 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>704</v>
       </c>
@@ -26798,7 +26810,7 @@
         <v>41696</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>705</v>
       </c>
@@ -26831,7 +26843,7 @@
         <v>41697</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>706</v>
       </c>
@@ -26864,7 +26876,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>707</v>
       </c>
@@ -26897,7 +26909,7 @@
         <v>41705</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>708</v>
       </c>
@@ -26930,7 +26942,7 @@
         <v>41732</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>709</v>
       </c>
@@ -26963,7 +26975,7 @@
         <v>41743</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>710</v>
       </c>
@@ -26996,7 +27008,7 @@
         <v>41754</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>711</v>
       </c>
@@ -27029,7 +27041,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>712</v>
       </c>
@@ -27062,7 +27074,7 @@
         <v>41772</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>713</v>
       </c>
@@ -27095,7 +27107,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>714</v>
       </c>
@@ -27128,7 +27140,7 @@
         <v>41799</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>715</v>
       </c>
@@ -27161,7 +27173,7 @@
         <v>41809</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>716</v>
       </c>
@@ -27194,7 +27206,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>717</v>
       </c>
@@ -27227,7 +27239,7 @@
         <v>41826</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>718</v>
       </c>
@@ -27260,7 +27272,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>719</v>
       </c>
@@ -27293,7 +27305,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>720</v>
       </c>
@@ -27326,7 +27338,7 @@
         <v>41840</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>721</v>
       </c>
@@ -27359,7 +27371,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>722</v>
       </c>
@@ -27392,7 +27404,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>723</v>
       </c>
@@ -27425,7 +27437,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>724</v>
       </c>
@@ -27458,7 +27470,7 @@
         <v>41863</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>725</v>
       </c>
@@ -27491,7 +27503,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>726</v>
       </c>
@@ -27524,7 +27536,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>727</v>
       </c>
@@ -27557,7 +27569,7 @@
         <v>41945</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>728</v>
       </c>
@@ -27590,7 +27602,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>729</v>
       </c>
@@ -27623,7 +27635,7 @@
         <v>41967</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>730</v>
       </c>
@@ -27656,7 +27668,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>731</v>
       </c>
@@ -27689,7 +27701,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>732</v>
       </c>
@@ -27722,7 +27734,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>733</v>
       </c>
@@ -27755,7 +27767,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>734</v>
       </c>
@@ -27788,7 +27800,7 @@
         <v>41989</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>735</v>
       </c>
@@ -27821,7 +27833,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>736</v>
       </c>
@@ -27854,7 +27866,7 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>737</v>
       </c>
@@ -27887,7 +27899,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>738</v>
       </c>
@@ -27920,7 +27932,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>739</v>
       </c>
@@ -27953,7 +27965,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>740</v>
       </c>
@@ -27986,7 +27998,7 @@
         <v>42021</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>741</v>
       </c>
@@ -28019,7 +28031,7 @@
         <v>42021</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>742</v>
       </c>
@@ -28052,7 +28064,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>743</v>
       </c>
@@ -28085,7 +28097,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>744</v>
       </c>
@@ -28118,7 +28130,7 @@
         <v>42052</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>745</v>
       </c>
@@ -28151,7 +28163,7 @@
         <v>42057</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>746</v>
       </c>
@@ -28184,7 +28196,7 @@
         <v>42059</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>747</v>
       </c>
@@ -28217,7 +28229,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>748</v>
       </c>
@@ -28250,7 +28262,7 @@
         <v>42079</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>749</v>
       </c>
@@ -28283,7 +28295,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>750</v>
       </c>
@@ -28316,7 +28328,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>751</v>
       </c>
@@ -28349,7 +28361,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>752</v>
       </c>
@@ -28382,7 +28394,7 @@
         <v>42115</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>753</v>
       </c>
@@ -28415,7 +28427,7 @@
         <v>42119</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>754</v>
       </c>
@@ -28448,7 +28460,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>755</v>
       </c>
@@ -28481,7 +28493,7 @@
         <v>42140</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>756</v>
       </c>
@@ -28514,7 +28526,7 @@
         <v>42141</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>757</v>
       </c>
@@ -28547,7 +28559,7 @@
         <v>42147</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>758</v>
       </c>
@@ -28580,7 +28592,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>759</v>
       </c>
@@ -28613,7 +28625,7 @@
         <v>42161</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>760</v>
       </c>
@@ -28646,7 +28658,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>761</v>
       </c>
@@ -28679,7 +28691,7 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>762</v>
       </c>
@@ -28712,7 +28724,7 @@
         <v>42201</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>763</v>
       </c>
@@ -28745,7 +28757,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>764</v>
       </c>
@@ -28778,7 +28790,7 @@
         <v>42215</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>765</v>
       </c>
@@ -28811,7 +28823,7 @@
         <v>42223</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>766</v>
       </c>
@@ -28844,7 +28856,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>767</v>
       </c>
@@ -28877,7 +28889,7 @@
         <v>42225</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>768</v>
       </c>
@@ -28910,7 +28922,7 @@
         <v>42243</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>769</v>
       </c>
@@ -28943,7 +28955,7 @@
         <v>42256</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>770</v>
       </c>
@@ -28976,7 +28988,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>771</v>
       </c>
@@ -29009,7 +29021,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>772</v>
       </c>
@@ -29042,7 +29054,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>773</v>
       </c>
@@ -29075,7 +29087,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>774</v>
       </c>
@@ -29108,7 +29120,7 @@
         <v>42280</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>775</v>
       </c>
@@ -29141,7 +29153,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>776</v>
       </c>
@@ -29174,7 +29186,7 @@
         <v>42291</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>777</v>
       </c>
@@ -29207,7 +29219,7 @@
         <v>42298</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>778</v>
       </c>
@@ -29240,7 +29252,7 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>779</v>
       </c>
@@ -29273,7 +29285,7 @@
         <v>42318</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>780</v>
       </c>
@@ -29306,7 +29318,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>781</v>
       </c>
@@ -29339,7 +29351,7 @@
         <v>42327</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>782</v>
       </c>
@@ -29372,7 +29384,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>783</v>
       </c>
@@ -29405,7 +29417,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>784</v>
       </c>
@@ -29438,7 +29450,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>785</v>
       </c>
@@ -29471,7 +29483,7 @@
         <v>42344</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>786</v>
       </c>
@@ -29504,7 +29516,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>787</v>
       </c>
@@ -29537,7 +29549,7 @@
         <v>42351</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>788</v>
       </c>
@@ -29570,7 +29582,7 @@
         <v>42352</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>789</v>
       </c>
@@ -29603,7 +29615,7 @@
         <v>42358</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>790</v>
       </c>
@@ -29636,7 +29648,7 @@
         <v>42360</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>791</v>
       </c>
@@ -29669,7 +29681,7 @@
         <v>42382</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>792</v>
       </c>
@@ -29702,7 +29714,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>793</v>
       </c>
@@ -29735,7 +29747,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>794</v>
       </c>
@@ -29768,7 +29780,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>795</v>
       </c>
@@ -29801,7 +29813,7 @@
         <v>42400</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>796</v>
       </c>
@@ -29834,7 +29846,7 @@
         <v>42405</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>797</v>
       </c>
@@ -29867,7 +29879,7 @@
         <v>42406</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>798</v>
       </c>
@@ -29900,7 +29912,7 @@
         <v>42408</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>799</v>
       </c>
@@ -29933,7 +29945,7 @@
         <v>42413</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>800</v>
       </c>
@@ -29966,7 +29978,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>801</v>
       </c>
@@ -29999,7 +30011,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>802</v>
       </c>
@@ -30032,7 +30044,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>803</v>
       </c>
@@ -30065,7 +30077,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>804</v>
       </c>
@@ -30098,7 +30110,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>805</v>
       </c>
@@ -30131,7 +30143,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>806</v>
       </c>
@@ -30164,7 +30176,7 @@
         <v>42449</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>807</v>
       </c>
@@ -30197,7 +30209,7 @@
         <v>42450</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>808</v>
       </c>
@@ -30230,7 +30242,7 @@
         <v>42463</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>809</v>
       </c>
@@ -30263,7 +30275,7 @@
         <v>42463</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>810</v>
       </c>
@@ -30296,7 +30308,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>811</v>
       </c>
@@ -30329,7 +30341,7 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>812</v>
       </c>
@@ -30362,7 +30374,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>813</v>
       </c>
@@ -30395,7 +30407,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>814</v>
       </c>
@@ -30428,7 +30440,7 @@
         <v>42490</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>815</v>
       </c>
@@ -30461,7 +30473,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>816</v>
       </c>
@@ -30494,7 +30506,7 @@
         <v>42497</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>817</v>
       </c>
@@ -30527,7 +30539,7 @@
         <v>42525</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>818</v>
       </c>
@@ -30560,7 +30572,7 @@
         <v>42526</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>819</v>
       </c>
@@ -30593,7 +30605,7 @@
         <v>42532</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>820</v>
       </c>
@@ -30626,7 +30638,7 @@
         <v>42536</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>821</v>
       </c>
@@ -30659,7 +30671,7 @@
         <v>42543</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>822</v>
       </c>
@@ -30692,7 +30704,7 @@
         <v>42556</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>823</v>
       </c>
@@ -30725,7 +30737,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>824</v>
       </c>
@@ -30758,7 +30770,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>825</v>
       </c>
@@ -30791,7 +30803,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>826</v>
       </c>
@@ -30824,7 +30836,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>827</v>
       </c>
@@ -30857,7 +30869,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>828</v>
       </c>
@@ -30890,7 +30902,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>829</v>
       </c>
@@ -30923,7 +30935,7 @@
         <v>42609</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>830</v>
       </c>
@@ -30956,7 +30968,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>831</v>
       </c>
@@ -30989,7 +31001,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>832</v>
       </c>
@@ -31022,7 +31034,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>833</v>
       </c>
@@ -31055,7 +31067,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>834</v>
       </c>
@@ -31088,7 +31100,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>835</v>
       </c>
@@ -31121,7 +31133,7 @@
         <v>42658</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>836</v>
       </c>
@@ -31154,7 +31166,7 @@
         <v>42680</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>837</v>
       </c>
@@ -31187,7 +31199,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>838</v>
       </c>
@@ -31220,7 +31232,7 @@
         <v>42727</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>839</v>
       </c>
@@ -31253,7 +31265,7 @@
         <v>42734</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>840</v>
       </c>
@@ -31286,7 +31298,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>841</v>
       </c>
@@ -31319,7 +31331,7 @@
         <v>42763</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>842</v>
       </c>
@@ -31352,7 +31364,7 @@
         <v>42764</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>843</v>
       </c>
@@ -31385,7 +31397,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>844</v>
       </c>
@@ -31418,7 +31430,7 @@
         <v>42770</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>845</v>
       </c>
@@ -31451,7 +31463,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>846</v>
       </c>
@@ -31484,7 +31496,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>847</v>
       </c>
@@ -31517,7 +31529,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>848</v>
       </c>
@@ -31550,7 +31562,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>849</v>
       </c>
@@ -31583,7 +31595,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>850</v>
       </c>
@@ -31616,7 +31628,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>851</v>
       </c>
@@ -31649,7 +31661,7 @@
         <v>42807</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>852</v>
       </c>
@@ -31682,7 +31694,7 @@
         <v>42807</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>853</v>
       </c>
@@ -31715,7 +31727,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>854</v>
       </c>
@@ -31748,7 +31760,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>855</v>
       </c>
@@ -31781,7 +31793,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>856</v>
       </c>
@@ -31814,7 +31826,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>857</v>
       </c>
@@ -31847,7 +31859,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>858</v>
       </c>
@@ -31880,7 +31892,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>859</v>
       </c>
@@ -31913,7 +31925,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>860</v>
       </c>
@@ -31946,7 +31958,7 @@
         <v>42862</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>861</v>
       </c>
@@ -31979,7 +31991,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>862</v>
       </c>
@@ -32012,7 +32024,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>863</v>
       </c>
@@ -32045,7 +32057,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>864</v>
       </c>
@@ -32078,7 +32090,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>865</v>
       </c>
@@ -32111,7 +32123,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>866</v>
       </c>
@@ -32144,7 +32156,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>867</v>
       </c>
@@ -32177,7 +32189,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>868</v>
       </c>
@@ -32210,7 +32222,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>869</v>
       </c>
@@ -32243,7 +32255,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>870</v>
       </c>
@@ -32276,7 +32288,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>871</v>
       </c>
@@ -32309,7 +32321,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>872</v>
       </c>
@@ -32342,7 +32354,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>873</v>
       </c>
@@ -32375,7 +32387,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>874</v>
       </c>
@@ -32408,7 +32420,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>875</v>
       </c>
@@ -32441,7 +32453,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>876</v>
       </c>
@@ -32474,7 +32486,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>877</v>
       </c>
@@ -32507,7 +32519,7 @@
         <v>42947</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>878</v>
       </c>
@@ -32540,7 +32552,7 @@
         <v>42952</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>879</v>
       </c>
@@ -32573,7 +32585,7 @@
         <v>42960</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>880</v>
       </c>
@@ -32606,7 +32618,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>881</v>
       </c>
@@ -32639,7 +32651,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>882</v>
       </c>
@@ -32672,7 +32684,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>883</v>
       </c>
@@ -32705,7 +32717,7 @@
         <v>42967</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>884</v>
       </c>
@@ -32738,7 +32750,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>885</v>
       </c>
@@ -32771,7 +32783,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>886</v>
       </c>
@@ -32804,7 +32816,7 @@
         <v>42994</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>887</v>
       </c>
@@ -32837,7 +32849,7 @@
         <v>42996</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>888</v>
       </c>
@@ -32870,7 +32882,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>889</v>
       </c>
@@ -32903,7 +32915,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>890</v>
       </c>
@@ -32936,7 +32948,7 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>891</v>
       </c>
@@ -32969,7 +32981,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>892</v>
       </c>
@@ -33002,7 +33014,7 @@
         <v>43039</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>893</v>
       </c>
@@ -33035,7 +33047,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>894</v>
       </c>
@@ -33068,7 +33080,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>895</v>
       </c>
@@ -33101,7 +33113,7 @@
         <v>43057</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>896</v>
       </c>
@@ -33134,7 +33146,7 @@
         <v>43057</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>897</v>
       </c>
@@ -33167,7 +33179,7 @@
         <v>43065</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>898</v>
       </c>
@@ -33200,7 +33212,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>899</v>
       </c>
@@ -33233,7 +33245,7 @@
         <v>43076</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>900</v>
       </c>
@@ -33266,7 +33278,7 @@
         <v>43094</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>901</v>
       </c>
@@ -33299,7 +33311,7 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>902</v>
       </c>
@@ -33332,7 +33344,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>903</v>
       </c>
@@ -33365,7 +33377,7 @@
         <v>43123</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>904</v>
       </c>
@@ -33398,7 +33410,7 @@
         <v>43123</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>905</v>
       </c>
@@ -33431,7 +33443,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>906</v>
       </c>
@@ -33464,7 +33476,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>907</v>
       </c>
@@ -33497,7 +33509,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>908</v>
       </c>
@@ -33530,7 +33542,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>909</v>
       </c>
@@ -33563,7 +33575,7 @@
         <v>43138</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>910</v>
       </c>
@@ -33596,7 +33608,7 @@
         <v>43141</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>911</v>
       </c>
@@ -33629,7 +33641,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>912</v>
       </c>
@@ -33662,7 +33674,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>913</v>
       </c>
@@ -33695,7 +33707,7 @@
         <v>43156</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>914</v>
       </c>
@@ -33728,7 +33740,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>915</v>
       </c>
@@ -33761,7 +33773,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>916</v>
       </c>
@@ -33794,7 +33806,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>917</v>
       </c>
@@ -33827,7 +33839,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>918</v>
       </c>
@@ -33860,7 +33872,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>919</v>
       </c>
@@ -33893,7 +33905,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>920</v>
       </c>
@@ -33926,7 +33938,7 @@
         <v>43201</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>921</v>
       </c>
@@ -33959,7 +33971,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>922</v>
       </c>
@@ -33992,7 +34004,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>923</v>
       </c>
@@ -34025,7 +34037,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>924</v>
       </c>
@@ -34058,7 +34070,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>925</v>
       </c>
@@ -34091,7 +34103,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>926</v>
       </c>
@@ -34124,7 +34136,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>927</v>
       </c>
@@ -34157,7 +34169,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>928</v>
       </c>
@@ -34190,7 +34202,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>929</v>
       </c>
@@ -34223,7 +34235,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>930</v>
       </c>
@@ -34256,7 +34268,7 @@
         <v>43239</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>931</v>
       </c>
@@ -34289,7 +34301,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>932</v>
       </c>
@@ -34322,7 +34334,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>933</v>
       </c>
@@ -34355,7 +34367,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>934</v>
       </c>
@@ -34388,7 +34400,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>935</v>
       </c>
@@ -34421,7 +34433,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>936</v>
       </c>
@@ -34454,7 +34466,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>937</v>
       </c>
@@ -34487,7 +34499,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>938</v>
       </c>
@@ -34520,7 +34532,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>939</v>
       </c>
@@ -34553,7 +34565,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>940</v>
       </c>
@@ -34586,7 +34598,7 @@
         <v>43330</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>941</v>
       </c>
@@ -34619,7 +34631,7 @@
         <v>43347</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>942</v>
       </c>
@@ -34652,7 +34664,7 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>943</v>
       </c>
@@ -34685,7 +34697,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>944</v>
       </c>
@@ -34718,7 +34730,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>945</v>
       </c>
@@ -34751,7 +34763,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>946</v>
       </c>
@@ -34784,7 +34796,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>947</v>
       </c>
@@ -34817,7 +34829,7 @@
         <v>43414</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>948</v>
       </c>
@@ -34850,7 +34862,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>949</v>
       </c>
@@ -34883,7 +34895,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>950</v>
       </c>
@@ -34916,7 +34928,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>951</v>
       </c>
@@ -34949,7 +34961,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>952</v>
       </c>
@@ -34982,7 +34994,7 @@
         <v>43443</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>953</v>
       </c>
@@ -35015,7 +35027,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>954</v>
       </c>
@@ -35048,7 +35060,7 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>955</v>
       </c>
@@ -35081,7 +35093,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>956</v>
       </c>
@@ -35114,7 +35126,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>957</v>
       </c>
@@ -35147,7 +35159,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>958</v>
       </c>
@@ -35180,7 +35192,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>959</v>
       </c>
@@ -35213,7 +35225,7 @@
         <v>43491</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>960</v>
       </c>
@@ -35246,7 +35258,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>961</v>
       </c>
@@ -35279,7 +35291,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>962</v>
       </c>
@@ -35312,7 +35324,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>963</v>
       </c>
@@ -35345,7 +35357,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>964</v>
       </c>
@@ -35378,7 +35390,7 @@
         <v>43519</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>965</v>
       </c>
@@ -35411,7 +35423,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>966</v>
       </c>
@@ -35444,7 +35456,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>967</v>
       </c>
@@ -35477,7 +35489,7 @@
         <v>43531</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>968</v>
       </c>
@@ -35510,7 +35522,7 @@
         <v>43534</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>969</v>
       </c>
@@ -35543,7 +35555,7 @@
         <v>43534</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>970</v>
       </c>
@@ -35576,7 +35588,7 @@
         <v>43540</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>971</v>
       </c>
@@ -35609,7 +35621,7 @@
         <v>43564</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>972</v>
       </c>
@@ -35642,7 +35654,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>973</v>
       </c>
@@ -35675,7 +35687,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>974</v>
       </c>
@@ -35708,7 +35720,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>975</v>
       </c>
@@ -35741,7 +35753,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>976</v>
       </c>
@@ -35774,7 +35786,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>977</v>
       </c>
@@ -35807,7 +35819,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>978</v>
       </c>
@@ -35840,7 +35852,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>979</v>
       </c>
@@ -35873,7 +35885,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>980</v>
       </c>
@@ -35906,7 +35918,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>981</v>
       </c>
@@ -35939,7 +35951,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>982</v>
       </c>
@@ -35972,7 +35984,7 @@
         <v>43631</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>983</v>
       </c>
@@ -36005,7 +36017,7 @@
         <v>43632</v>
       </c>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>984</v>
       </c>
@@ -36038,7 +36050,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>985</v>
       </c>
@@ -36071,7 +36083,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>986</v>
       </c>
@@ -36104,7 +36116,7 @@
         <v>43645</v>
       </c>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>987</v>
       </c>
@@ -36137,7 +36149,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>988</v>
       </c>
@@ -36170,7 +36182,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>989</v>
       </c>
@@ -36203,7 +36215,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>990</v>
       </c>
@@ -36236,7 +36248,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>991</v>
       </c>
@@ -36269,7 +36281,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>992</v>
       </c>
@@ -36302,7 +36314,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>993</v>
       </c>
@@ -36335,7 +36347,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>994</v>
       </c>
@@ -36368,7 +36380,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>995</v>
       </c>
@@ -36401,7 +36413,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>996</v>
       </c>
@@ -36434,7 +36446,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>997</v>
       </c>
@@ -36467,7 +36479,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>998</v>
       </c>
@@ -36500,7 +36512,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>999</v>
       </c>
@@ -36533,7 +36545,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>1000</v>
       </c>
@@ -36566,7 +36578,7 @@
         <v>43757</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>1001</v>
       </c>
@@ -36599,7 +36611,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>1002</v>
       </c>
@@ -36632,7 +36644,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>1003</v>
       </c>
@@ -36665,7 +36677,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>1004</v>
       </c>
@@ -36698,7 +36710,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>1005</v>
       </c>
@@ -36731,7 +36743,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
         <v>1006</v>
       </c>
@@ -36764,7 +36776,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
         <v>1007</v>
       </c>
@@ -36797,7 +36809,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
         <v>1008</v>
       </c>
@@ -36830,7 +36842,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>1009</v>
       </c>
@@ -36863,7 +36875,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
         <v>1010</v>
       </c>
@@ -36896,7 +36908,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
         <v>1011</v>
       </c>
@@ -36929,7 +36941,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>1012</v>
       </c>
@@ -36962,7 +36974,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>1013</v>
       </c>
@@ -36995,7 +37007,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
         <v>1014</v>
       </c>
@@ -37028,7 +37040,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
         <v>1015</v>
       </c>
@@ -37061,7 +37073,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
         <v>1016</v>
       </c>
@@ -37094,7 +37106,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
         <v>1017</v>
       </c>
@@ -37127,7 +37139,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
         <v>1018</v>
       </c>
@@ -37160,7 +37172,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
         <v>1019</v>
       </c>
@@ -37193,7 +37205,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
         <v>1020</v>
       </c>
@@ -37226,7 +37238,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
         <v>1021</v>
       </c>
@@ -37259,7 +37271,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
         <v>1022</v>
       </c>
@@ -37292,7 +37304,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
         <v>1023</v>
       </c>
@@ -37325,7 +37337,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>1024</v>
       </c>
@@ -37358,7 +37370,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
         <v>1025</v>
       </c>
@@ -37391,7 +37403,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
         <v>1026</v>
       </c>
@@ -37424,7 +37436,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>1027</v>
       </c>
@@ -37457,7 +37469,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>1028</v>
       </c>
@@ -37490,7 +37502,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>1029</v>
       </c>
@@ -37523,7 +37535,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
         <v>1030</v>
       </c>
@@ -37556,7 +37568,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>1031</v>
       </c>
@@ -37589,7 +37601,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>1032</v>
       </c>
@@ -37622,7 +37634,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>1033</v>
       </c>
@@ -37655,7 +37667,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>1034</v>
       </c>
@@ -37688,7 +37700,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>1035</v>
       </c>
@@ -37721,7 +37733,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
         <v>1036</v>
       </c>
@@ -37754,7 +37766,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>1037</v>
       </c>
@@ -37787,7 +37799,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>1038</v>
       </c>
@@ -37820,7 +37832,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>1039</v>
       </c>
@@ -37853,7 +37865,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>1040</v>
       </c>
@@ -37886,7 +37898,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>1041</v>
       </c>
@@ -37919,7 +37931,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
         <v>1042</v>
       </c>
@@ -37952,7 +37964,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>1043</v>
       </c>
@@ -37985,7 +37997,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>1044</v>
       </c>
@@ -38018,7 +38030,7 @@
         <v>44053</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>1045</v>
       </c>
@@ -38051,7 +38063,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>1046</v>
       </c>
@@ -38084,7 +38096,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>1047</v>
       </c>
@@ -38117,7 +38129,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>1048</v>
       </c>
@@ -38150,7 +38162,7 @@
         <v>44093</v>
       </c>
     </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
         <v>1049</v>
       </c>
@@ -38183,7 +38195,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>1050</v>
       </c>
@@ -38216,7 +38228,7 @@
         <v>44121</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>1051</v>
       </c>
@@ -38249,7 +38261,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>1052</v>
       </c>
@@ -38282,7 +38294,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>1053</v>
       </c>
@@ -38315,7 +38327,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>1054</v>
       </c>
@@ -38348,7 +38360,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>1055</v>
       </c>
@@ -38381,7 +38393,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>1056</v>
       </c>
@@ -38414,7 +38426,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>1057</v>
       </c>
@@ -38447,7 +38459,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
         <v>1058</v>
       </c>
@@ -38480,7 +38492,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>1059</v>
       </c>
@@ -38513,7 +38525,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
         <v>1060</v>
       </c>
@@ -38546,7 +38558,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
         <v>1061</v>
       </c>
@@ -38579,7 +38591,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
         <v>1062</v>
       </c>
@@ -38612,7 +38624,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
         <v>1063</v>
       </c>
@@ -38645,7 +38657,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
         <v>1064</v>
       </c>
@@ -38678,7 +38690,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
         <v>1065</v>
       </c>
@@ -38711,7 +38723,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
         <v>1066</v>
       </c>
@@ -38744,7 +38756,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
         <v>1067</v>
       </c>
@@ -38777,7 +38789,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
         <v>1068</v>
       </c>
@@ -38810,7 +38822,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
         <v>1069</v>
       </c>
@@ -38843,7 +38855,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
         <v>1070</v>
       </c>
@@ -38876,7 +38888,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
         <v>1071</v>
       </c>
@@ -38909,7 +38921,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
         <v>1072</v>
       </c>
@@ -38942,7 +38954,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
         <v>1073</v>
       </c>
@@ -38975,7 +38987,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
         <v>1074</v>
       </c>
@@ -39008,7 +39020,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>1075</v>
       </c>
@@ -39041,7 +39053,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
         <v>1076</v>
       </c>
@@ -39074,7 +39086,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
         <v>1077</v>
       </c>
@@ -39107,7 +39119,7 @@
         <v>44364</v>
       </c>
     </row>
-    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
         <v>1078</v>
       </c>
@@ -39140,7 +39152,7 @@
         <v>44366</v>
       </c>
     </row>
-    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
         <v>1079</v>
       </c>
@@ -39173,7 +39185,7 @@
         <v>44367</v>
       </c>
     </row>
-    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
         <v>1080</v>
       </c>
@@ -39206,7 +39218,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
         <v>1081</v>
       </c>
@@ -39239,7 +39251,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>1082</v>
       </c>
@@ -39272,7 +39284,7 @@
         <v>44375</v>
       </c>
     </row>
-    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
         <v>1083</v>
       </c>
@@ -39305,7 +39317,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
         <v>1084</v>
       </c>
@@ -39338,7 +39350,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
         <v>1085</v>
       </c>
@@ -39371,7 +39383,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
         <v>1086</v>
       </c>
@@ -39404,7 +39416,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
         <v>1087</v>
       </c>
@@ -39437,7 +39449,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
         <v>1088</v>
       </c>
@@ -39470,7 +39482,7 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
         <v>1089</v>
       </c>
@@ -39503,7 +39515,7 @@
         <v>44434</v>
       </c>
     </row>
-    <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
         <v>1090</v>
       </c>
@@ -39536,7 +39548,7 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
         <v>1091</v>
       </c>
@@ -39569,7 +39581,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
         <v>1092</v>
       </c>
@@ -39602,7 +39614,7 @@
         <v>44458</v>
       </c>
     </row>
-    <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
         <v>1093</v>
       </c>
@@ -39635,7 +39647,7 @@
         <v>44459</v>
       </c>
     </row>
-    <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
         <v>1094</v>
       </c>
@@ -39668,7 +39680,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
         <v>1095</v>
       </c>
@@ -39701,7 +39713,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
         <v>1096</v>
       </c>
@@ -39734,7 +39746,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
         <v>1097</v>
       </c>
@@ -39768,7 +39780,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:I1095">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I1095">
     <sortCondition ref="I1064" customList="Dom,Seg,Ter,Qua,Qui,Sex,Sáb"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
